--- a/client/public/ImageUpload.xlsx
+++ b/client/public/ImageUpload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolimitmide/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nolimitmide/Desktop/tyu/client/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D7F7E5-2A78-D84A-AE3E-C6FE88DE94B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361063D-B883-D94E-A3EA-9B4F861B6FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{CB38F3A0-3A45-4342-976D-51AFCC461E0D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Image Name</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Variant</t>
+  </si>
+  <si>
+    <t>Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Product Name</t>
   </si>
 </sst>
 </file>
@@ -447,44 +456,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA06A55-69A1-6541-A8EC-1F04EB2E2576}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="173.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="C6" s="4"/>
     </row>
   </sheetData>
